--- a/artfynd/A 29860-2022 artfynd.xlsx
+++ b/artfynd/A 29860-2022 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>377827</v>
       </c>
       <c r="B2" t="n">
-        <v>106462</v>
+        <v>106466</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         <v>377298</v>
       </c>
       <c r="B3" t="n">
-        <v>106462</v>
+        <v>106466</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -6366,7 +6366,7 @@
         <v>63121823</v>
       </c>
       <c r="B48" t="n">
-        <v>106462</v>
+        <v>106466</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>101475553</v>
       </c>
       <c r="B57" t="n">
-        <v>106462</v>
+        <v>106466</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>111942881</v>
       </c>
       <c r="B58" t="n">
-        <v>106462</v>
+        <v>106466</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
